--- a/퍼블리싱진척율_0912.xlsx
+++ b/퍼블리싱진척율_0912.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
   <si>
     <t>8/11~</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,350 +306,358 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Host Catalogue.List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host Catalogue.Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Catalogue.List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Catalogue.Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host Resource Catalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Resource Catalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Detail.VNFI Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Detail.VLI Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New NS Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Delete NS Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VL Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Delete VL Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VNF Instance.VNF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VNF Instance.Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VNF Instance.VL MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VNF Instance.Host MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.New VNF Instance.IP Allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Scale VNF Instance.Flavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Scale VNF Instance.Host MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Scale VNF Instance.IP Allocation</t>
+  </si>
+  <si>
+    <t>NS Instance.Terminate VNF Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Start VNF Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS Instance.Stop VNF Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Add.User Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Add.Additional Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Update.User Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Update.Additional Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.PWD Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account.Logout Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/25~, 8/26 1차 Release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/22~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server DB 연동 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/27~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ochestrator 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/1~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/20~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mockflow상에 기획된 컨텐츠 내의 상/하, 좌/우 Scroll을 제외하곤 가급적 Scroll 배제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 기획상의 Chart 퍼블리싱 불필요-별도 컴포넌트 제작 예정, 해당 영역 별도 그림으로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 및 Tree View는 공통 요소로 사용할 수 있도록 Table만 별도 제작 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB Font 다른 깔끔한(?) 서체로 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 Commponent의 이벤트는 대부분 퍼블리싱 불필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준 HTML5 기준으로 퍼블리싱하되, CSS 조작으로 색상/두께/길이 조정 쉽게 가능하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 고려한 자체 제작 Component 제거(Commbo Box,Scroll Bar,Check Box,Radio Button,상단 메뉴 디자인), 기본 Component 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label과 Input 영역 잘 구분 되도록, Label 보단 Input 영역에 포커스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 영역 제거(Detail/Task)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래쪽 영역 제거(실시간 알람)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Layout만 필요시 Icon 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 재정의중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics.Separate과 거의 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 조건 재정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table은 대부분 Page 처리하고, Page별 Rows 정의 가능토록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 부분의 영역 구분은 Box 처리가 아닌, 여백 및 폰트 크기/채도 등으로 필요시 깔끔한(?) Line으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 메뉴 제거/왼쪽 상단 Tile Box 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 메뉴 기본 Commponent로 재구성(메뉴 색은 기존 프로젝트 관리 색상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 Depth 영역 제거(홈&gt;프로젝트 관리&gt;프로젝트&gt;….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 크기는 Full HD를 기준(F11로 전체보기가 아닌), url 입력창 및 타이틀 Tab Page 노출 기준, 브라우저 창을 줄일 때 폭이 점차 줄어들고, 이후 여러 라인으로 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~8/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~8/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~9/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~9/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~8/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~9/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VNF Catalogue.On-Board</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VNF Catalogue.Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Host Catalogue.List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Host Catalogue.Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network Catalogue.List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network Catalogue.Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Host Resource Catalogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network Resource Catalogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Detail.VNFI Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Detail.VLI Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New NS Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Delete NS Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VL Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Delete VL Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VNF Instance.VNF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VNF Instance.Config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VNF Instance.VL MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VNF Instance.Host MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select Host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.New VNF Instance.IP Allocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Scale VNF Instance.Flavor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Scale VNF Instance.Host MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Scale VNF Instance.IP Allocation</t>
-  </si>
-  <si>
-    <t>NS Instance.Terminate VNF Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Start VNF Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS Instance.Stop VNF Instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Add.User Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Add.Additional Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Update.User Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Update.Additional Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.PWD Reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account.Logout Config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지보수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/25~, 8/26 1차 Release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/22~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server DB 연동 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/27~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ochestrator 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/1~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/20~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mockflow상에 기획된 컨텐츠 내의 상/하, 좌/우 Scroll을 제외하곤 가급적 Scroll 배제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 기획상의 Chart 퍼블리싱 불필요-별도 컴포넌트 제작 예정, 해당 영역 별도 그림으로 대체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 및 Tree View는 공통 요소로 사용할 수 있도록 Table만 별도 제작 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB Font 다른 깔끔한(?) 서체로 검토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 Commponent의 이벤트는 대부분 퍼블리싱 불필요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준 HTML5 기준으로 퍼블리싱하되, CSS 조작으로 색상/두께/길이 조정 쉽게 가능하도록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 고려한 자체 제작 Component 제거(Commbo Box,Scroll Bar,Check Box,Radio Button,상단 메뉴 디자인), 기본 Component 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label과 Input 영역 잘 구분 되도록, Label 보단 Input 영역에 포커스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 영역 제거(Detail/Task)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래쪽 영역 제거(실시간 알람)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 Layout만 필요시 Icon 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 재정의중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistics.Separate과 거의 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 조건 재정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table은 대부분 Page 처리하고, Page별 Rows 정의 가능토록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠 부분의 영역 구분은 Box 처리가 아닌, 여백 및 폰트 크기/채도 등으로 필요시 깔끔한(?) Line으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 메뉴 제거/왼쪽 상단 Tile Box 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 메뉴 기본 Commponent로 재구성(메뉴 색은 기존 프로젝트 관리 색상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 Depth 영역 제거(홈&gt;프로젝트 관리&gt;프로젝트&gt;….)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 크기는 Full HD를 기준(F11로 전체보기가 아닌), url 입력창 및 타이틀 Tab Page 노출 기준, 브라우저 창을 줄일 때 폭이 점차 줄어들고, 이후 여러 라인으로 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~8/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~8/29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~9/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼블리싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~9/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~9/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~9/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~8/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1135,19 +1143,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="hair">
         <color auto="1"/>
@@ -1212,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,88 +1385,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1777,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1796,25 +1758,25 @@
     <row r="1" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>85</v>
-      </c>
       <c r="G2" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,14 +1785,14 @@
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -1846,13 +1808,13 @@
       </c>
       <c r="F4" s="48"/>
       <c r="G4" s="48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,13 +1825,13 @@
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1880,13 +1842,13 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1920,13 +1882,13 @@
         <v>52</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1939,13 +1901,13 @@
         <v>55</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1958,13 +1920,13 @@
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1975,13 +1937,13 @@
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1992,13 +1954,13 @@
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2011,13 +1973,13 @@
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,13 +1990,13 @@
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,121 +2007,121 @@
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="78"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="71"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>150</v>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>148</v>
       </c>
       <c r="I18" s="71"/>
     </row>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="71"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>150</v>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>148</v>
       </c>
       <c r="I20" s="71"/>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="71"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I22" s="52"/>
     </row>
@@ -2167,159 +2129,159 @@
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H23" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="69"/>
+      <c r="D24" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="68"/>
-      <c r="D24" s="69" t="s">
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="69"/>
+      <c r="D26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="71"/>
+    </row>
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="71"/>
+    </row>
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="86" t="s">
-        <v>156</v>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81" t="s">
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="68"/>
+    </row>
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="83"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I32" s="60"/>
     </row>
@@ -2327,14 +2289,14 @@
       <c r="C33" s="50"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I33" s="60"/>
     </row>
@@ -2342,16 +2304,16 @@
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H34" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I34" s="60"/>
     </row>
@@ -2359,63 +2321,63 @@
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H35" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I35" s="60"/>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="81" t="s">
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>158</v>
+      <c r="G36" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="83"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I38" s="60"/>
     </row>
@@ -2423,16 +2385,16 @@
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I39" s="60"/>
     </row>
@@ -2440,14 +2402,14 @@
       <c r="C40" s="50"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I40" s="60"/>
     </row>
@@ -2455,14 +2417,14 @@
       <c r="C41" s="50"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I41" s="60"/>
     </row>
@@ -2470,16 +2432,16 @@
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I42" s="60"/>
     </row>
@@ -2487,14 +2449,14 @@
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I43" s="60"/>
     </row>
@@ -2502,14 +2464,14 @@
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I44" s="60"/>
     </row>
@@ -2517,14 +2479,14 @@
       <c r="C45" s="50"/>
       <c r="D45" s="51"/>
       <c r="E45" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I45" s="60"/>
     </row>
@@ -2532,158 +2494,157 @@
       <c r="C46" s="53"/>
       <c r="D46" s="54"/>
       <c r="E46" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I46" s="61"/>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="50"/>
       <c r="D48" s="51"/>
       <c r="E48" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="50"/>
       <c r="D49" s="51"/>
       <c r="E49" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="50"/>
       <c r="D50" s="51"/>
       <c r="E50" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="50"/>
       <c r="D51" s="51"/>
       <c r="E51" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="50"/>
       <c r="D52" s="51"/>
       <c r="E52" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I52" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C54" s="62"/>
       <c r="D54" s="63"/>
       <c r="E54" s="63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" s="63"/>
       <c r="G54" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H54" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I54" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I28:I29"/>
+  <mergeCells count="2">
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I36:I37"/>
   </mergeCells>
@@ -2721,25 +2682,25 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
@@ -2890,7 +2851,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -2916,7 +2877,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
@@ -2941,7 +2902,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -3005,7 +2966,7 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3035,7 +2996,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -3051,14 +3012,14 @@
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
@@ -3131,7 +3092,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="21"/>
     </row>
@@ -6183,77 +6144,77 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/퍼블리싱진척율_0912.xlsx
+++ b/퍼블리싱진척율_0912.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="12420"/>
+    <workbookView xWindow="34180" yWindow="0" windowWidth="31880" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="개발항목(0821)" sheetId="5" r:id="rId1"/>
     <sheet name="일정 계획" sheetId="2" r:id="rId2"/>
     <sheet name="디자인 및 퍼블리싱 고려 사항" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -658,20 +663,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -679,7 +684,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -687,10 +692,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <name val="Adobe 고딕 Std B"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1212,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,13 +1327,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,15 +1363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1381,18 +1381,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1411,72 +1459,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1777,907 +1771,907 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9" style="38"/>
-    <col min="3" max="3" width="14.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="14.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="38"/>
-    <col min="9" max="9" width="37.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="38"/>
+    <col min="6" max="6" width="14.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="38"/>
+    <col min="9" max="9" width="37.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="39" t="s">
+    <row r="1" spans="3:9" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="3:9" ht="20" customHeight="1" thickBot="1">
+      <c r="C2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43" t="s">
+    <row r="3" spans="3:9" ht="20" customHeight="1">
+      <c r="C3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47" t="s">
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="3:9" ht="20" customHeight="1">
+      <c r="C4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51" t="s">
+    <row r="5" spans="3:9" ht="20" customHeight="1">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
+    <row r="6" spans="3:9" ht="20" customHeight="1">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="62" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
+    <row r="7" spans="3:9" ht="20" customHeight="1">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
+    <row r="8" spans="3:9" ht="20" customHeight="1">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51" t="s">
+    <row r="9" spans="3:9" ht="20" customHeight="1">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="50"/>
-      <c r="D10" s="51" t="s">
+    <row r="10" spans="3:9" ht="20" customHeight="1">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51" t="s">
+    <row r="11" spans="3:9" ht="20" customHeight="1">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+    <row r="12" spans="3:9" ht="20" customHeight="1">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51" t="s">
+    <row r="13" spans="3:9" ht="20" customHeight="1">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+    <row r="14" spans="3:9" ht="20" customHeight="1">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54" t="s">
+    <row r="15" spans="3:9" ht="20" customHeight="1">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="75" t="s">
+    <row r="16" spans="3:9" ht="20" customHeight="1">
+      <c r="C16" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="78"/>
-    </row>
-    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" spans="3:9" ht="20" customHeight="1">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="71"/>
-    </row>
-    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69" t="s">
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="3:9" ht="20" customHeight="1">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69" t="s">
+      <c r="I18" s="62"/>
+    </row>
+    <row r="19" spans="3:9" ht="20" customHeight="1">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69" t="s">
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="3:9" ht="20" customHeight="1">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69" t="s">
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="3:9" ht="20" customHeight="1">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51" t="s">
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="3:9" ht="20" customHeight="1">
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51" t="s">
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="3:9" ht="20" customHeight="1">
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="68"/>
-      <c r="D24" s="69" t="s">
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="3:9" ht="20" customHeight="1">
+      <c r="C24" s="59"/>
+      <c r="D24" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="60"/>
+      <c r="G24" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="I24" s="62"/>
+    </row>
+    <row r="25" spans="3:9" ht="20" customHeight="1">
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="60"/>
+      <c r="G25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69" t="s">
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="3:9" ht="20" customHeight="1">
+      <c r="C26" s="59"/>
+      <c r="D26" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="3:9" ht="20" customHeight="1">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73" t="s">
+      <c r="F27" s="66"/>
+      <c r="G27" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="84" t="s">
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="3:9" ht="20" customHeight="1">
+      <c r="C28" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85" t="s">
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="86" t="s">
+      <c r="I28" s="70" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81" t="s">
+    <row r="29" spans="3:9" ht="20" customHeight="1">
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81" t="s">
+      <c r="F29" s="72"/>
+      <c r="G29" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81" t="s">
+      <c r="I29" s="73"/>
+    </row>
+    <row r="30" spans="3:9" ht="20" customHeight="1">
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="74" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81" t="s">
+    <row r="31" spans="3:9" ht="20" customHeight="1">
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="83"/>
-    </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51" t="s">
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="3:9" ht="20" customHeight="1">
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51" t="s">
+      <c r="I32" s="75"/>
+    </row>
+    <row r="33" spans="3:9" ht="20" customHeight="1">
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51" t="s">
+      <c r="F33" s="50"/>
+      <c r="G33" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51" t="s">
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="3:9" ht="20" customHeight="1">
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="60"/>
-    </row>
-    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51" t="s">
+      <c r="I34" s="75"/>
+    </row>
+    <row r="35" spans="3:9" ht="20" customHeight="1">
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H35" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="60"/>
-    </row>
-    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81" t="s">
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36" spans="3:9" ht="20" customHeight="1">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="I36" s="74" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81" t="s">
+    <row r="37" spans="3:9" ht="20" customHeight="1">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81" t="s">
+      <c r="F37" s="72"/>
+      <c r="G37" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="83"/>
-    </row>
-    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51" t="s">
+      <c r="I37" s="73"/>
+    </row>
+    <row r="38" spans="3:9" ht="20" customHeight="1">
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="60"/>
-    </row>
-    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51" t="s">
+      <c r="I38" s="75"/>
+    </row>
+    <row r="39" spans="3:9" ht="20" customHeight="1">
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="60"/>
-    </row>
-    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51" t="s">
+      <c r="I39" s="75"/>
+    </row>
+    <row r="40" spans="3:9" ht="20" customHeight="1">
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="60"/>
-    </row>
-    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51" t="s">
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="3:9" ht="20" customHeight="1">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="60"/>
-    </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="I41" s="75"/>
+    </row>
+    <row r="42" spans="3:9" ht="20" customHeight="1">
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="60"/>
-    </row>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51" t="s">
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="3:9" ht="20" customHeight="1">
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I43" s="60"/>
-    </row>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51" t="s">
+      <c r="I43" s="75"/>
+    </row>
+    <row r="44" spans="3:9" ht="20" customHeight="1">
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="60"/>
-    </row>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51" t="s">
+      <c r="I44" s="75"/>
+    </row>
+    <row r="45" spans="3:9" ht="20" customHeight="1">
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="51" t="s">
+      <c r="H45" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="60"/>
-    </row>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54" t="s">
+      <c r="I45" s="75"/>
+    </row>
+    <row r="46" spans="3:9" ht="20" customHeight="1">
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54" t="s">
+      <c r="F46" s="53"/>
+      <c r="G46" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="61"/>
-    </row>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="56" t="s">
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="3:9" ht="20" customHeight="1">
+      <c r="C47" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57" t="s">
+      <c r="F47" s="56"/>
+      <c r="G47" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="57" t="s">
         <v>154</v>
       </c>
       <c r="I47" s="58" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51" t="s">
+    <row r="48" spans="3:9" ht="20" customHeight="1">
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51" t="s">
+      <c r="F48" s="50"/>
+      <c r="G48" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="50"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51" t="s">
+    <row r="49" spans="3:9" ht="20" customHeight="1">
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="45" t="s">
+      <c r="H49" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51" t="s">
+    <row r="50" spans="3:9" ht="20" customHeight="1">
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51" t="s">
+      <c r="F50" s="50"/>
+      <c r="G50" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51" t="s">
+    <row r="51" spans="3:9" ht="20" customHeight="1">
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="45" t="s">
+      <c r="H51" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I51" s="52" t="s">
+      <c r="I51" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51" t="s">
+    <row r="52" spans="3:9" ht="20" customHeight="1">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51" t="s">
+      <c r="F52" s="50"/>
+      <c r="G52" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="45" t="s">
+      <c r="H52" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51" t="s">
+    <row r="53" spans="3:9" ht="20" customHeight="1">
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51" t="s">
+      <c r="F53" s="50"/>
+      <c r="G53" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="45" t="s">
+      <c r="H53" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63" t="s">
+    <row r="54" spans="3:9" ht="20" customHeight="1" thickBot="1">
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63" t="s">
+      <c r="F54" s="78"/>
+      <c r="G54" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="64" t="s">
+      <c r="H54" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2689,7 +2683,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2697,23 +2695,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BO186"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="11.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="37" customWidth="1"/>
-    <col min="21" max="67" width="11.625" style="2" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="11.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="37" customWidth="1"/>
+    <col min="21" max="67" width="11.6640625" style="2" customWidth="1"/>
+    <col min="68" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15" thickBot="1"/>
+    <row r="2" spans="2:17">
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2721,27 +2719,27 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2785,7 +2783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" ht="15" thickBot="1">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
@@ -2813,7 +2811,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17">
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2837,7 +2835,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
@@ -2859,7 +2857,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
@@ -2881,7 +2879,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17">
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
@@ -2903,7 +2901,7 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17">
       <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
@@ -2929,7 +2927,7 @@
       <c r="P9" s="28"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17">
       <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
@@ -2953,7 +2951,7 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17">
       <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
@@ -2979,7 +2977,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
@@ -3001,7 +2999,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
@@ -3023,7 +3021,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17">
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
         <v>25</v>
@@ -3047,7 +3045,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -3069,7 +3067,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
@@ -3091,7 +3089,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
@@ -3113,7 +3111,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
@@ -3135,7 +3133,7 @@
       </c>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -3153,7 +3151,7 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3171,7 +3169,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3189,7 +3187,7 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3207,7 +3205,7 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -3225,7 +3223,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3243,7 +3241,7 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3261,7 +3259,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3279,7 +3277,7 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3297,7 +3295,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3315,7 +3313,7 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3333,7 +3331,7 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3351,7 +3349,7 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -3369,7 +3367,7 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -3387,7 +3385,7 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="21"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -3405,7 +3403,7 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="21"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -3423,7 +3421,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="21"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -3441,7 +3439,7 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="21"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -3459,7 +3457,7 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="21"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -3477,7 +3475,7 @@
       <c r="P37" s="20"/>
       <c r="Q37" s="21"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -3495,7 +3493,7 @@
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -3513,7 +3511,7 @@
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3531,7 +3529,7 @@
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3549,7 +3547,7 @@
       <c r="P41" s="20"/>
       <c r="Q41" s="21"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3567,7 +3565,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -3585,7 +3583,7 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -3603,7 +3601,7 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="21"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -3621,7 +3619,7 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="21"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -3639,7 +3637,7 @@
       <c r="P46" s="20"/>
       <c r="Q46" s="21"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -3657,7 +3655,7 @@
       <c r="P47" s="20"/>
       <c r="Q47" s="21"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -3675,7 +3673,7 @@
       <c r="P48" s="20"/>
       <c r="Q48" s="21"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17">
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -3693,7 +3691,7 @@
       <c r="P49" s="20"/>
       <c r="Q49" s="21"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -3711,7 +3709,7 @@
       <c r="P50" s="20"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -3729,7 +3727,7 @@
       <c r="P51" s="20"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -3747,7 +3745,7 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17">
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -3765,7 +3763,7 @@
       <c r="P53" s="20"/>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -3783,7 +3781,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="21"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -3801,7 +3799,7 @@
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -3819,7 +3817,7 @@
       <c r="P56" s="20"/>
       <c r="Q56" s="21"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -3837,7 +3835,7 @@
       <c r="P57" s="20"/>
       <c r="Q57" s="21"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -3855,7 +3853,7 @@
       <c r="P58" s="20"/>
       <c r="Q58" s="21"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -3873,7 +3871,7 @@
       <c r="P59" s="20"/>
       <c r="Q59" s="21"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -3891,7 +3889,7 @@
       <c r="P60" s="20"/>
       <c r="Q60" s="21"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17">
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -3909,7 +3907,7 @@
       <c r="P61" s="20"/>
       <c r="Q61" s="21"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -3927,7 +3925,7 @@
       <c r="P62" s="20"/>
       <c r="Q62" s="21"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -3945,7 +3943,7 @@
       <c r="P63" s="20"/>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -3963,7 +3961,7 @@
       <c r="P64" s="20"/>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17">
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -3981,7 +3979,7 @@
       <c r="P65" s="20"/>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -3999,7 +3997,7 @@
       <c r="P66" s="20"/>
       <c r="Q66" s="21"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17">
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -4017,7 +4015,7 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="21"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -4035,7 +4033,7 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="21"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17">
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -4053,7 +4051,7 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="21"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -4071,7 +4069,7 @@
       <c r="P70" s="20"/>
       <c r="Q70" s="21"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17">
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -4089,7 +4087,7 @@
       <c r="P71" s="20"/>
       <c r="Q71" s="21"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -4107,7 +4105,7 @@
       <c r="P72" s="20"/>
       <c r="Q72" s="21"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17">
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
@@ -4125,7 +4123,7 @@
       <c r="P73" s="20"/>
       <c r="Q73" s="21"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -4143,7 +4141,7 @@
       <c r="P74" s="20"/>
       <c r="Q74" s="21"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -4161,7 +4159,7 @@
       <c r="P75" s="20"/>
       <c r="Q75" s="21"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17">
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
@@ -4179,7 +4177,7 @@
       <c r="P76" s="20"/>
       <c r="Q76" s="21"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17">
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -4197,7 +4195,7 @@
       <c r="P77" s="20"/>
       <c r="Q77" s="21"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17">
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -4215,7 +4213,7 @@
       <c r="P78" s="20"/>
       <c r="Q78" s="21"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17">
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -4233,7 +4231,7 @@
       <c r="P79" s="20"/>
       <c r="Q79" s="21"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17">
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
@@ -4251,7 +4249,7 @@
       <c r="P80" s="20"/>
       <c r="Q80" s="21"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17">
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
@@ -4269,7 +4267,7 @@
       <c r="P81" s="20"/>
       <c r="Q81" s="21"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17">
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
@@ -4287,7 +4285,7 @@
       <c r="P82" s="20"/>
       <c r="Q82" s="21"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17">
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
@@ -4305,7 +4303,7 @@
       <c r="P83" s="20"/>
       <c r="Q83" s="21"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17">
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
@@ -4323,7 +4321,7 @@
       <c r="P84" s="20"/>
       <c r="Q84" s="21"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17">
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -4341,7 +4339,7 @@
       <c r="P85" s="20"/>
       <c r="Q85" s="21"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17">
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
@@ -4359,7 +4357,7 @@
       <c r="P86" s="20"/>
       <c r="Q86" s="21"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17">
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
@@ -4377,7 +4375,7 @@
       <c r="P87" s="20"/>
       <c r="Q87" s="21"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17">
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -4395,7 +4393,7 @@
       <c r="P88" s="20"/>
       <c r="Q88" s="21"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17">
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
@@ -4413,7 +4411,7 @@
       <c r="P89" s="20"/>
       <c r="Q89" s="21"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17">
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -4431,7 +4429,7 @@
       <c r="P90" s="20"/>
       <c r="Q90" s="21"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17">
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
@@ -4449,7 +4447,7 @@
       <c r="P91" s="20"/>
       <c r="Q91" s="21"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17">
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
@@ -4467,7 +4465,7 @@
       <c r="P92" s="20"/>
       <c r="Q92" s="21"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17">
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
@@ -4485,7 +4483,7 @@
       <c r="P93" s="20"/>
       <c r="Q93" s="21"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17">
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -4503,7 +4501,7 @@
       <c r="P94" s="20"/>
       <c r="Q94" s="21"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17">
       <c r="B95" s="18"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
@@ -4521,7 +4519,7 @@
       <c r="P95" s="20"/>
       <c r="Q95" s="21"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17">
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
@@ -4539,7 +4537,7 @@
       <c r="P96" s="20"/>
       <c r="Q96" s="21"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:17">
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
@@ -4557,7 +4555,7 @@
       <c r="P97" s="20"/>
       <c r="Q97" s="21"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:17">
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
@@ -4575,7 +4573,7 @@
       <c r="P98" s="20"/>
       <c r="Q98" s="21"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:17">
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
@@ -4593,7 +4591,7 @@
       <c r="P99" s="20"/>
       <c r="Q99" s="21"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:17">
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
@@ -4611,7 +4609,7 @@
       <c r="P100" s="20"/>
       <c r="Q100" s="21"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:17">
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
@@ -4629,7 +4627,7 @@
       <c r="P101" s="20"/>
       <c r="Q101" s="21"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:17">
       <c r="B102" s="18"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
@@ -4647,7 +4645,7 @@
       <c r="P102" s="20"/>
       <c r="Q102" s="21"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:17">
       <c r="B103" s="18"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
@@ -4665,7 +4663,7 @@
       <c r="P103" s="20"/>
       <c r="Q103" s="21"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:17">
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -4683,7 +4681,7 @@
       <c r="P104" s="20"/>
       <c r="Q104" s="21"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17">
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
@@ -4701,7 +4699,7 @@
       <c r="P105" s="20"/>
       <c r="Q105" s="21"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17">
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -4719,7 +4717,7 @@
       <c r="P106" s="20"/>
       <c r="Q106" s="21"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17">
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
@@ -4737,7 +4735,7 @@
       <c r="P107" s="20"/>
       <c r="Q107" s="21"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:17">
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -4755,7 +4753,7 @@
       <c r="P108" s="20"/>
       <c r="Q108" s="21"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:17">
       <c r="B109" s="18"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -4773,7 +4771,7 @@
       <c r="P109" s="20"/>
       <c r="Q109" s="21"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17">
       <c r="B110" s="18"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -4791,7 +4789,7 @@
       <c r="P110" s="20"/>
       <c r="Q110" s="21"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:17">
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -4809,7 +4807,7 @@
       <c r="P111" s="20"/>
       <c r="Q111" s="21"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:17">
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
@@ -4827,7 +4825,7 @@
       <c r="P112" s="20"/>
       <c r="Q112" s="21"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17">
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4845,7 +4843,7 @@
       <c r="P113" s="20"/>
       <c r="Q113" s="21"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:17">
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -4863,7 +4861,7 @@
       <c r="P114" s="20"/>
       <c r="Q114" s="21"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17">
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -4881,7 +4879,7 @@
       <c r="P115" s="20"/>
       <c r="Q115" s="21"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:17">
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
@@ -4899,7 +4897,7 @@
       <c r="P116" s="20"/>
       <c r="Q116" s="21"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:17">
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
@@ -4917,7 +4915,7 @@
       <c r="P117" s="20"/>
       <c r="Q117" s="21"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:17">
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
@@ -4935,7 +4933,7 @@
       <c r="P118" s="20"/>
       <c r="Q118" s="21"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:17">
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
@@ -4953,7 +4951,7 @@
       <c r="P119" s="20"/>
       <c r="Q119" s="21"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:17">
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -4971,7 +4969,7 @@
       <c r="P120" s="20"/>
       <c r="Q120" s="21"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:17">
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
@@ -4989,7 +4987,7 @@
       <c r="P121" s="20"/>
       <c r="Q121" s="21"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:17">
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
@@ -5007,7 +5005,7 @@
       <c r="P122" s="20"/>
       <c r="Q122" s="21"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:17">
       <c r="B123" s="18"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
@@ -5025,7 +5023,7 @@
       <c r="P123" s="20"/>
       <c r="Q123" s="21"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:17">
       <c r="B124" s="18"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -5043,7 +5041,7 @@
       <c r="P124" s="20"/>
       <c r="Q124" s="21"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:17">
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -5061,7 +5059,7 @@
       <c r="P125" s="20"/>
       <c r="Q125" s="21"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:17">
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
@@ -5079,7 +5077,7 @@
       <c r="P126" s="20"/>
       <c r="Q126" s="21"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:17">
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
@@ -5097,7 +5095,7 @@
       <c r="P127" s="20"/>
       <c r="Q127" s="21"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:17">
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
@@ -5115,7 +5113,7 @@
       <c r="P128" s="20"/>
       <c r="Q128" s="21"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:17">
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
@@ -5133,7 +5131,7 @@
       <c r="P129" s="20"/>
       <c r="Q129" s="21"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:17">
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
@@ -5151,7 +5149,7 @@
       <c r="P130" s="20"/>
       <c r="Q130" s="21"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:17">
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
@@ -5169,7 +5167,7 @@
       <c r="P131" s="20"/>
       <c r="Q131" s="21"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:17">
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
@@ -5187,7 +5185,7 @@
       <c r="P132" s="20"/>
       <c r="Q132" s="21"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:17">
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -5205,7 +5203,7 @@
       <c r="P133" s="20"/>
       <c r="Q133" s="21"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:17">
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
@@ -5223,7 +5221,7 @@
       <c r="P134" s="20"/>
       <c r="Q134" s="21"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:17">
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
@@ -5241,7 +5239,7 @@
       <c r="P135" s="20"/>
       <c r="Q135" s="21"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:17">
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -5259,7 +5257,7 @@
       <c r="P136" s="20"/>
       <c r="Q136" s="21"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:17">
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
@@ -5277,7 +5275,7 @@
       <c r="P137" s="20"/>
       <c r="Q137" s="21"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:17">
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -5295,7 +5293,7 @@
       <c r="P138" s="20"/>
       <c r="Q138" s="21"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:17">
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
@@ -5313,7 +5311,7 @@
       <c r="P139" s="20"/>
       <c r="Q139" s="21"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:17">
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
@@ -5331,7 +5329,7 @@
       <c r="P140" s="20"/>
       <c r="Q140" s="21"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:17">
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
@@ -5349,7 +5347,7 @@
       <c r="P141" s="20"/>
       <c r="Q141" s="21"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:17">
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
@@ -5367,7 +5365,7 @@
       <c r="P142" s="20"/>
       <c r="Q142" s="21"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:17">
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -5385,7 +5383,7 @@
       <c r="P143" s="20"/>
       <c r="Q143" s="21"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:17">
       <c r="B144" s="18"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
@@ -5403,7 +5401,7 @@
       <c r="P144" s="20"/>
       <c r="Q144" s="21"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:17">
       <c r="B145" s="18"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
@@ -5421,7 +5419,7 @@
       <c r="P145" s="20"/>
       <c r="Q145" s="21"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:17">
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
@@ -5439,7 +5437,7 @@
       <c r="P146" s="20"/>
       <c r="Q146" s="21"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:17">
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
@@ -5457,7 +5455,7 @@
       <c r="P147" s="20"/>
       <c r="Q147" s="21"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:17">
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
@@ -5475,7 +5473,7 @@
       <c r="P148" s="20"/>
       <c r="Q148" s="21"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:17">
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
@@ -5493,7 +5491,7 @@
       <c r="P149" s="20"/>
       <c r="Q149" s="21"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:17">
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
@@ -5511,7 +5509,7 @@
       <c r="P150" s="20"/>
       <c r="Q150" s="21"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:17">
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
@@ -5529,7 +5527,7 @@
       <c r="P151" s="20"/>
       <c r="Q151" s="21"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:17">
       <c r="B152" s="18"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
@@ -5547,7 +5545,7 @@
       <c r="P152" s="20"/>
       <c r="Q152" s="21"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:17">
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
@@ -5565,7 +5563,7 @@
       <c r="P153" s="20"/>
       <c r="Q153" s="21"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:17">
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
@@ -5583,7 +5581,7 @@
       <c r="P154" s="20"/>
       <c r="Q154" s="21"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:17">
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
@@ -5601,7 +5599,7 @@
       <c r="P155" s="20"/>
       <c r="Q155" s="21"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:17">
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
@@ -5619,7 +5617,7 @@
       <c r="P156" s="20"/>
       <c r="Q156" s="21"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:17">
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
@@ -5637,7 +5635,7 @@
       <c r="P157" s="20"/>
       <c r="Q157" s="21"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:17">
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
@@ -5655,7 +5653,7 @@
       <c r="P158" s="20"/>
       <c r="Q158" s="21"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:17">
       <c r="B159" s="18"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
@@ -5673,7 +5671,7 @@
       <c r="P159" s="20"/>
       <c r="Q159" s="21"/>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:17">
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
@@ -5691,7 +5689,7 @@
       <c r="P160" s="20"/>
       <c r="Q160" s="21"/>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:17">
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
@@ -5709,7 +5707,7 @@
       <c r="P161" s="20"/>
       <c r="Q161" s="21"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:17">
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
@@ -5727,7 +5725,7 @@
       <c r="P162" s="20"/>
       <c r="Q162" s="21"/>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:17">
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
@@ -5745,7 +5743,7 @@
       <c r="P163" s="20"/>
       <c r="Q163" s="21"/>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:17">
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
@@ -5763,7 +5761,7 @@
       <c r="P164" s="20"/>
       <c r="Q164" s="21"/>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:17">
       <c r="B165" s="18"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
@@ -5781,7 +5779,7 @@
       <c r="P165" s="20"/>
       <c r="Q165" s="21"/>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:17">
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
@@ -5799,7 +5797,7 @@
       <c r="P166" s="20"/>
       <c r="Q166" s="21"/>
     </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:17">
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
@@ -5817,7 +5815,7 @@
       <c r="P167" s="20"/>
       <c r="Q167" s="21"/>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:17">
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
@@ -5835,7 +5833,7 @@
       <c r="P168" s="20"/>
       <c r="Q168" s="21"/>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:17">
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
@@ -5853,7 +5851,7 @@
       <c r="P169" s="20"/>
       <c r="Q169" s="21"/>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:17">
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
@@ -5871,7 +5869,7 @@
       <c r="P170" s="20"/>
       <c r="Q170" s="21"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:17">
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
@@ -5889,7 +5887,7 @@
       <c r="P171" s="20"/>
       <c r="Q171" s="21"/>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:17">
       <c r="B172" s="18"/>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
@@ -5907,7 +5905,7 @@
       <c r="P172" s="20"/>
       <c r="Q172" s="21"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:17">
       <c r="B173" s="18"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
@@ -5925,7 +5923,7 @@
       <c r="P173" s="20"/>
       <c r="Q173" s="21"/>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:17">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
@@ -5943,7 +5941,7 @@
       <c r="P174" s="20"/>
       <c r="Q174" s="21"/>
     </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:17">
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
@@ -5961,7 +5959,7 @@
       <c r="P175" s="20"/>
       <c r="Q175" s="21"/>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:17">
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
@@ -5979,7 +5977,7 @@
       <c r="P176" s="20"/>
       <c r="Q176" s="21"/>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:17">
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
@@ -5997,7 +5995,7 @@
       <c r="P177" s="20"/>
       <c r="Q177" s="21"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:17">
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
@@ -6015,7 +6013,7 @@
       <c r="P178" s="20"/>
       <c r="Q178" s="21"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:17">
       <c r="B179" s="18"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
@@ -6033,7 +6031,7 @@
       <c r="P179" s="20"/>
       <c r="Q179" s="21"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:17">
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
@@ -6051,7 +6049,7 @@
       <c r="P180" s="20"/>
       <c r="Q180" s="21"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:17">
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
@@ -6069,7 +6067,7 @@
       <c r="P181" s="20"/>
       <c r="Q181" s="21"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:17">
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
@@ -6087,7 +6085,7 @@
       <c r="P182" s="20"/>
       <c r="Q182" s="21"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:17">
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
@@ -6105,7 +6103,7 @@
       <c r="P183" s="20"/>
       <c r="Q183" s="21"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:17">
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
@@ -6123,7 +6121,7 @@
       <c r="P184" s="20"/>
       <c r="Q184" s="21"/>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:17">
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
@@ -6141,7 +6139,7 @@
       <c r="P185" s="20"/>
       <c r="Q185" s="21"/>
     </row>
-    <row r="186" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:17" ht="15" thickBot="1">
       <c r="B186" s="30"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
@@ -6167,7 +6165,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6179,79 +6181,79 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>147</v>
       </c>
@@ -6259,5 +6261,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/퍼블리싱진척율_0912.xlsx
+++ b/퍼블리싱진척율_0912.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="12420"/>
@@ -1212,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,9 +1378,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1411,68 +1408,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,7 +1787,7 @@
   <dimension ref="C1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2002,151 +2011,151 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="66"/>
+      <c r="G19" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="50"/>
@@ -2158,7 +2167,7 @@
       <c r="G22" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="58" t="s">
         <v>150</v>
       </c>
       <c r="I22" s="52"/>
@@ -2173,140 +2182,140 @@
       <c r="G23" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="58" t="s">
         <v>150</v>
       </c>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="68"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="I24" s="71"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="74"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85" t="s">
+      <c r="D28" s="80"/>
+      <c r="E28" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85" t="s">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="86" t="s">
+      <c r="I28" s="81" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81" t="s">
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="83"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="78"/>
+      <c r="G30" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="83" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81" t="s">
+      <c r="F31" s="78"/>
+      <c r="G31" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="83"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="50"/>
@@ -2321,7 +2330,7 @@
       <c r="H32" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="60"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="50"/>
@@ -2336,7 +2345,7 @@
       <c r="H33" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="60"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="50"/>
@@ -2353,7 +2362,7 @@
       <c r="H34" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="60"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="50"/>
@@ -2368,41 +2377,41 @@
       <c r="H35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="60"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="I36" s="83" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="83"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="50"/>
@@ -2417,7 +2426,7 @@
       <c r="H38" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="60"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="50"/>
@@ -2434,7 +2443,7 @@
       <c r="H39" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="60"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="50"/>
@@ -2449,7 +2458,7 @@
       <c r="H40" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="60"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="50"/>
@@ -2464,7 +2473,7 @@
       <c r="H41" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="60"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="50"/>
@@ -2481,7 +2490,7 @@
       <c r="H42" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="60"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="50"/>
@@ -2496,7 +2505,7 @@
       <c r="H43" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I43" s="60"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="50"/>
@@ -2511,7 +2520,7 @@
       <c r="H44" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="60"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="50"/>
@@ -2526,7 +2535,7 @@
       <c r="H45" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="60"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="53"/>
@@ -2541,24 +2550,24 @@
       <c r="H46" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="61"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57" t="s">
+      <c r="F47" s="56"/>
+      <c r="G47" s="56" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="57" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2665,19 +2674,19 @@
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63" t="s">
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63" t="s">
+      <c r="F54" s="62"/>
+      <c r="G54" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="64" t="s">
+      <c r="H54" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="64" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2721,25 +2730,25 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>

--- a/퍼블리싱진척율_0912.xlsx
+++ b/퍼블리싱진척율_0912.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="12420"/>
+    <workbookView xWindow="34740" yWindow="0" windowWidth="26980" windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="개발항목(0821)" sheetId="5" r:id="rId1"/>
     <sheet name="일정 계획" sheetId="2" r:id="rId2"/>
     <sheet name="디자인 및 퍼블리싱 고려 사항" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -666,20 +671,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -687,7 +692,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -695,7 +700,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1207,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,7 +1324,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1349,15 +1354,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,15 +1372,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1424,21 +1411,51 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1739,24 +1756,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9" style="38"/>
-    <col min="3" max="3" width="14.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="14.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="38"/>
-    <col min="9" max="9" width="37.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="38"/>
+    <col min="6" max="6" width="14.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="38"/>
+    <col min="9" max="9" width="37.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:9" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="3:9" ht="20" customHeight="1" thickBot="1">
       <c r="C2" s="39" t="s">
         <v>80</v>
       </c>
@@ -1779,7 +1796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="20" customHeight="1">
       <c r="C3" s="43" t="s">
         <v>44</v>
       </c>
@@ -1796,850 +1813,850 @@
       </c>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47" t="s">
+    <row r="4" spans="3:9" ht="20" customHeight="1">
+      <c r="C4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51" t="s">
+    <row r="5" spans="3:9" ht="20" customHeight="1">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="76" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
+    <row r="6" spans="3:9" ht="20" customHeight="1">
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
+    <row r="7" spans="3:9" ht="20" customHeight="1">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>113</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
+    <row r="8" spans="3:9" ht="20" customHeight="1">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51" t="s">
+    <row r="9" spans="3:9" ht="20" customHeight="1">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="50"/>
-      <c r="D10" s="51" t="s">
+    <row r="10" spans="3:9" ht="20" customHeight="1">
+      <c r="C10" s="74"/>
+      <c r="D10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="75"/>
+      <c r="G10" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51" t="s">
+    <row r="11" spans="3:9" ht="20" customHeight="1">
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+    <row r="12" spans="3:9" ht="20" customHeight="1">
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="75"/>
+      <c r="G12" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51" t="s">
+    <row r="13" spans="3:9" ht="20" customHeight="1">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+    <row r="14" spans="3:9" ht="20" customHeight="1">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54" t="s">
+    <row r="15" spans="3:9" ht="20" customHeight="1">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="69" t="s">
+    <row r="16" spans="3:9" ht="20" customHeight="1">
+      <c r="C16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67" t="s">
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="3:9" ht="20" customHeight="1">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="68"/>
-    </row>
-    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70" t="s">
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="3:9" ht="20" customHeight="1">
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67" t="s">
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="3:9" ht="20" customHeight="1">
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="61"/>
+      <c r="G19" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70" t="s">
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="3:9" ht="20" customHeight="1">
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70" t="s">
+      <c r="F20" s="64"/>
+      <c r="G20" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67" t="s">
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="3:9" ht="20" customHeight="1">
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67" t="s">
+      <c r="F21" s="61"/>
+      <c r="G21" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="68"/>
-    </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51" t="s">
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="3:9" ht="20" customHeight="1">
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51" t="s">
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="3:9" ht="20" customHeight="1">
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="69"/>
-      <c r="D24" s="70" t="s">
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="3:9" ht="20" customHeight="1">
+      <c r="C24" s="63"/>
+      <c r="D24" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70" t="s">
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="3:9" ht="20" customHeight="1">
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70" t="s">
+      <c r="F25" s="64"/>
+      <c r="G25" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="69"/>
-      <c r="D26" s="70" t="s">
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="3:9" ht="20" customHeight="1">
+      <c r="C26" s="63"/>
+      <c r="D26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70" t="s">
+      <c r="F26" s="64"/>
+      <c r="G26" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70" t="s">
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="3:9" ht="20" customHeight="1">
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70" t="s">
+      <c r="F27" s="64"/>
+      <c r="G27" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="69" t="s">
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="3:9" ht="20" customHeight="1">
+      <c r="C28" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70" t="s">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="65" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67" t="s">
+    <row r="29" spans="3:9" ht="20" customHeight="1">
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="68"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67" t="s">
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="3:9" ht="20" customHeight="1">
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="61"/>
+      <c r="G30" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="66" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67" t="s">
+    <row r="31" spans="3:9" ht="20" customHeight="1">
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67" t="s">
+      <c r="F31" s="61"/>
+      <c r="G31" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51" t="s">
+      <c r="I31" s="67"/>
+    </row>
+    <row r="32" spans="3:9" ht="20" customHeight="1">
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="60"/>
-    </row>
-    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51" t="s">
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="3:9" ht="20" customHeight="1">
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51" t="s">
+      <c r="F33" s="48"/>
+      <c r="G33" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51" t="s">
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="3:9" ht="20" customHeight="1">
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="60"/>
-    </row>
-    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51" t="s">
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="3:9" ht="20" customHeight="1">
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H35" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="60"/>
-    </row>
-    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67" t="s">
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="3:9" ht="20" customHeight="1">
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="73" t="s">
+      <c r="I36" s="66" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67" t="s">
+    <row r="37" spans="3:9" ht="20" customHeight="1">
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="72"/>
-    </row>
-    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51" t="s">
+      <c r="I37" s="67"/>
+    </row>
+    <row r="38" spans="3:9" ht="20" customHeight="1">
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="48"/>
+      <c r="G38" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I38" s="60"/>
-    </row>
-    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51" t="s">
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="3:9" ht="20" customHeight="1">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="60"/>
-    </row>
-    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51" t="s">
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="3:9" ht="20" customHeight="1">
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="60"/>
-    </row>
-    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51" t="s">
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="3:9" ht="20" customHeight="1">
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="60"/>
-    </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="3:9" ht="20" customHeight="1">
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I42" s="60"/>
-    </row>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51" t="s">
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="3:9" ht="20" customHeight="1">
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51" t="s">
+      <c r="F43" s="48"/>
+      <c r="G43" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I43" s="60"/>
-    </row>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51" t="s">
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="3:9" ht="20" customHeight="1">
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="60"/>
-    </row>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51" t="s">
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="3:9" ht="20" customHeight="1">
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51" t="s">
+      <c r="F45" s="48"/>
+      <c r="G45" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="51" t="s">
+      <c r="H45" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I45" s="60"/>
-    </row>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54" t="s">
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="3:9" ht="20" customHeight="1">
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54" t="s">
+      <c r="F46" s="51"/>
+      <c r="G46" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I46" s="61"/>
-    </row>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="56" t="s">
+      <c r="I46" s="55"/>
+    </row>
+    <row r="47" spans="3:9" ht="20" customHeight="1">
+      <c r="C47" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="78"/>
+      <c r="E47" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57" t="s">
+      <c r="F47" s="78"/>
+      <c r="G47" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="79" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51" t="s">
+    <row r="48" spans="3:9" ht="20" customHeight="1">
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51" t="s">
+      <c r="F48" s="48"/>
+      <c r="G48" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H48" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="50"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51" t="s">
+    <row r="49" spans="3:9" ht="20" customHeight="1">
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51" t="s">
+      <c r="F49" s="48"/>
+      <c r="G49" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H49" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="50"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51" t="s">
+    <row r="50" spans="3:9" ht="20" customHeight="1">
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51" t="s">
+      <c r="F50" s="48"/>
+      <c r="G50" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H50" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51" t="s">
+    <row r="51" spans="3:9" ht="20" customHeight="1">
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51" t="s">
+      <c r="F51" s="48"/>
+      <c r="G51" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H51" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I51" s="52" t="s">
+      <c r="I51" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51" t="s">
+    <row r="52" spans="3:9" ht="20" customHeight="1">
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51" t="s">
+      <c r="F52" s="48"/>
+      <c r="G52" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H52" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51" t="s">
+    <row r="53" spans="3:9" ht="20" customHeight="1">
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="48" t="s">
         <v>114</v>
       </c>
       <c r="H53" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63" t="s">
+    <row r="54" spans="3:9" ht="20" customHeight="1" thickBot="1">
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63" t="s">
+      <c r="F54" s="57"/>
+      <c r="G54" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="64" t="s">
+      <c r="H54" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="I54" s="65" t="s">
+      <c r="I54" s="59" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2650,7 +2667,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2658,23 +2679,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BO186"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="11.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="37" customWidth="1"/>
-    <col min="21" max="67" width="11.625" style="2" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="11.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="37" customWidth="1"/>
+    <col min="21" max="67" width="11.6640625" style="2" customWidth="1"/>
+    <col min="68" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15" thickBot="1"/>
+    <row r="2" spans="2:17">
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
@@ -2682,27 +2703,27 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2746,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" ht="15" thickBot="1">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
@@ -2774,7 +2795,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17">
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2819,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17">
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
@@ -2820,7 +2841,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
@@ -2842,7 +2863,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17">
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
@@ -2864,7 +2885,7 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17">
       <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
@@ -2890,7 +2911,7 @@
       <c r="P9" s="28"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17">
       <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
@@ -2914,7 +2935,7 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="25"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17">
       <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
@@ -2940,7 +2961,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
@@ -2962,7 +2983,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
@@ -2984,7 +3005,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17">
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
         <v>25</v>
@@ -3008,7 +3029,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -3030,7 +3051,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
@@ -3052,7 +3073,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
@@ -3074,7 +3095,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
@@ -3096,7 +3117,7 @@
       </c>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -3114,7 +3135,7 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3132,7 +3153,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3150,7 +3171,7 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3168,7 +3189,7 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -3186,7 +3207,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3204,7 +3225,7 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3222,7 +3243,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3240,7 +3261,7 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3258,7 +3279,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3276,7 +3297,7 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3294,7 +3315,7 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3312,7 +3333,7 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -3330,7 +3351,7 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -3348,7 +3369,7 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="21"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -3366,7 +3387,7 @@
       <c r="P33" s="20"/>
       <c r="Q33" s="21"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -3384,7 +3405,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="21"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -3402,7 +3423,7 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="21"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -3420,7 +3441,7 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="21"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -3438,7 +3459,7 @@
       <c r="P37" s="20"/>
       <c r="Q37" s="21"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -3456,7 +3477,7 @@
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -3474,7 +3495,7 @@
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3492,7 +3513,7 @@
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3510,7 +3531,7 @@
       <c r="P41" s="20"/>
       <c r="Q41" s="21"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3528,7 +3549,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -3546,7 +3567,7 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -3564,7 +3585,7 @@
       <c r="P44" s="20"/>
       <c r="Q44" s="21"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -3582,7 +3603,7 @@
       <c r="P45" s="20"/>
       <c r="Q45" s="21"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -3600,7 +3621,7 @@
       <c r="P46" s="20"/>
       <c r="Q46" s="21"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -3618,7 +3639,7 @@
       <c r="P47" s="20"/>
       <c r="Q47" s="21"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -3636,7 +3657,7 @@
       <c r="P48" s="20"/>
       <c r="Q48" s="21"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17">
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -3654,7 +3675,7 @@
       <c r="P49" s="20"/>
       <c r="Q49" s="21"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -3672,7 +3693,7 @@
       <c r="P50" s="20"/>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -3690,7 +3711,7 @@
       <c r="P51" s="20"/>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -3708,7 +3729,7 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17">
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -3726,7 +3747,7 @@
       <c r="P53" s="20"/>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -3744,7 +3765,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="21"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -3762,7 +3783,7 @@
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -3780,7 +3801,7 @@
       <c r="P56" s="20"/>
       <c r="Q56" s="21"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -3798,7 +3819,7 @@
       <c r="P57" s="20"/>
       <c r="Q57" s="21"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -3816,7 +3837,7 @@
       <c r="P58" s="20"/>
       <c r="Q58" s="21"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -3834,7 +3855,7 @@
       <c r="P59" s="20"/>
       <c r="Q59" s="21"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -3852,7 +3873,7 @@
       <c r="P60" s="20"/>
       <c r="Q60" s="21"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17">
       <c r="B61" s="18"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -3870,7 +3891,7 @@
       <c r="P61" s="20"/>
       <c r="Q61" s="21"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -3888,7 +3909,7 @@
       <c r="P62" s="20"/>
       <c r="Q62" s="21"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -3906,7 +3927,7 @@
       <c r="P63" s="20"/>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -3924,7 +3945,7 @@
       <c r="P64" s="20"/>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17">
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -3942,7 +3963,7 @@
       <c r="P65" s="20"/>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -3960,7 +3981,7 @@
       <c r="P66" s="20"/>
       <c r="Q66" s="21"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17">
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -3978,7 +3999,7 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="21"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -3996,7 +4017,7 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="21"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17">
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -4014,7 +4035,7 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="21"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -4032,7 +4053,7 @@
       <c r="P70" s="20"/>
       <c r="Q70" s="21"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17">
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -4050,7 +4071,7 @@
       <c r="P71" s="20"/>
       <c r="Q71" s="21"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -4068,7 +4089,7 @@
       <c r="P72" s="20"/>
       <c r="Q72" s="21"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17">
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
@@ -4086,7 +4107,7 @@
       <c r="P73" s="20"/>
       <c r="Q73" s="21"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -4104,7 +4125,7 @@
       <c r="P74" s="20"/>
       <c r="Q74" s="21"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -4122,7 +4143,7 @@
       <c r="P75" s="20"/>
       <c r="Q75" s="21"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17">
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
@@ -4140,7 +4161,7 @@
       <c r="P76" s="20"/>
       <c r="Q76" s="21"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17">
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -4158,7 +4179,7 @@
       <c r="P77" s="20"/>
       <c r="Q77" s="21"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17">
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -4176,7 +4197,7 @@
       <c r="P78" s="20"/>
       <c r="Q78" s="21"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17">
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -4194,7 +4215,7 @@
       <c r="P79" s="20"/>
       <c r="Q79" s="21"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17">
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
@@ -4212,7 +4233,7 @@
       <c r="P80" s="20"/>
       <c r="Q80" s="21"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17">
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
@@ -4230,7 +4251,7 @@
       <c r="P81" s="20"/>
       <c r="Q81" s="21"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17">
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
@@ -4248,7 +4269,7 @@
       <c r="P82" s="20"/>
       <c r="Q82" s="21"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17">
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
@@ -4266,7 +4287,7 @@
       <c r="P83" s="20"/>
       <c r="Q83" s="21"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17">
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
@@ -4284,7 +4305,7 @@
       <c r="P84" s="20"/>
       <c r="Q84" s="21"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17">
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -4302,7 +4323,7 @@
       <c r="P85" s="20"/>
       <c r="Q85" s="21"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17">
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
@@ -4320,7 +4341,7 @@
       <c r="P86" s="20"/>
       <c r="Q86" s="21"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17">
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
@@ -4338,7 +4359,7 @@
       <c r="P87" s="20"/>
       <c r="Q87" s="21"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17">
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -4356,7 +4377,7 @@
       <c r="P88" s="20"/>
       <c r="Q88" s="21"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17">
       <c r="B89" s="18"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
@@ -4374,7 +4395,7 @@
       <c r="P89" s="20"/>
       <c r="Q89" s="21"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17">
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -4392,7 +4413,7 @@
       <c r="P90" s="20"/>
       <c r="Q90" s="21"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17">
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
@@ -4410,7 +4431,7 @@
       <c r="P91" s="20"/>
       <c r="Q91" s="21"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17">
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
@@ -4428,7 +4449,7 @@
       <c r="P92" s="20"/>
       <c r="Q92" s="21"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17">
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
@@ -4446,7 +4467,7 @@
       <c r="P93" s="20"/>
       <c r="Q93" s="21"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17">
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -4464,7 +4485,7 @@
       <c r="P94" s="20"/>
       <c r="Q94" s="21"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17">
       <c r="B95" s="18"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
@@ -4482,7 +4503,7 @@
       <c r="P95" s="20"/>
       <c r="Q95" s="21"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17">
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
@@ -4500,7 +4521,7 @@
       <c r="P96" s="20"/>
       <c r="Q96" s="21"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:17">
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
@@ -4518,7 +4539,7 @@
       <c r="P97" s="20"/>
       <c r="Q97" s="21"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:17">
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
@@ -4536,7 +4557,7 @@
       <c r="P98" s="20"/>
       <c r="Q98" s="21"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:17">
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
@@ -4554,7 +4575,7 @@
       <c r="P99" s="20"/>
       <c r="Q99" s="21"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:17">
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
@@ -4572,7 +4593,7 @@
       <c r="P100" s="20"/>
       <c r="Q100" s="21"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:17">
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
@@ -4590,7 +4611,7 @@
       <c r="P101" s="20"/>
       <c r="Q101" s="21"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:17">
       <c r="B102" s="18"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
@@ -4608,7 +4629,7 @@
       <c r="P102" s="20"/>
       <c r="Q102" s="21"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:17">
       <c r="B103" s="18"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
@@ -4626,7 +4647,7 @@
       <c r="P103" s="20"/>
       <c r="Q103" s="21"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:17">
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -4644,7 +4665,7 @@
       <c r="P104" s="20"/>
       <c r="Q104" s="21"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17">
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
@@ -4662,7 +4683,7 @@
       <c r="P105" s="20"/>
       <c r="Q105" s="21"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17">
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -4680,7 +4701,7 @@
       <c r="P106" s="20"/>
       <c r="Q106" s="21"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17">
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
@@ -4698,7 +4719,7 @@
       <c r="P107" s="20"/>
       <c r="Q107" s="21"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:17">
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -4716,7 +4737,7 @@
       <c r="P108" s="20"/>
       <c r="Q108" s="21"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:17">
       <c r="B109" s="18"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -4734,7 +4755,7 @@
       <c r="P109" s="20"/>
       <c r="Q109" s="21"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17">
       <c r="B110" s="18"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -4752,7 +4773,7 @@
       <c r="P110" s="20"/>
       <c r="Q110" s="21"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:17">
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -4770,7 +4791,7 @@
       <c r="P111" s="20"/>
       <c r="Q111" s="21"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:17">
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
@@ -4788,7 +4809,7 @@
       <c r="P112" s="20"/>
       <c r="Q112" s="21"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17">
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4806,7 +4827,7 @@
       <c r="P113" s="20"/>
       <c r="Q113" s="21"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:17">
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -4824,7 +4845,7 @@
       <c r="P114" s="20"/>
       <c r="Q114" s="21"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17">
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -4842,7 +4863,7 @@
       <c r="P115" s="20"/>
       <c r="Q115" s="21"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:17">
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
@@ -4860,7 +4881,7 @@
       <c r="P116" s="20"/>
       <c r="Q116" s="21"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:17">
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
@@ -4878,7 +4899,7 @@
       <c r="P117" s="20"/>
       <c r="Q117" s="21"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:17">
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
@@ -4896,7 +4917,7 @@
       <c r="P118" s="20"/>
       <c r="Q118" s="21"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:17">
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
@@ -4914,7 +4935,7 @@
       <c r="P119" s="20"/>
       <c r="Q119" s="21"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:17">
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -4932,7 +4953,7 @@
       <c r="P120" s="20"/>
       <c r="Q120" s="21"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:17">
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
@@ -4950,7 +4971,7 @@
       <c r="P121" s="20"/>
       <c r="Q121" s="21"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:17">
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
@@ -4968,7 +4989,7 @@
       <c r="P122" s="20"/>
       <c r="Q122" s="21"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:17">
       <c r="B123" s="18"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
@@ -4986,7 +5007,7 @@
       <c r="P123" s="20"/>
       <c r="Q123" s="21"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:17">
       <c r="B124" s="18"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -5004,7 +5025,7 @@
       <c r="P124" s="20"/>
       <c r="Q124" s="21"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:17">
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -5022,7 +5043,7 @@
       <c r="P125" s="20"/>
       <c r="Q125" s="21"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:17">
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
@@ -5040,7 +5061,7 @@
       <c r="P126" s="20"/>
       <c r="Q126" s="21"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:17">
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
@@ -5058,7 +5079,7 @@
       <c r="P127" s="20"/>
       <c r="Q127" s="21"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:17">
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
@@ -5076,7 +5097,7 @@
       <c r="P128" s="20"/>
       <c r="Q128" s="21"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:17">
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
@@ -5094,7 +5115,7 @@
       <c r="P129" s="20"/>
       <c r="Q129" s="21"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:17">
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
@@ -5112,7 +5133,7 @@
       <c r="P130" s="20"/>
       <c r="Q130" s="21"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:17">
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
@@ -5130,7 +5151,7 @@
       <c r="P131" s="20"/>
       <c r="Q131" s="21"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:17">
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
@@ -5148,7 +5169,7 @@
       <c r="P132" s="20"/>
       <c r="Q132" s="21"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:17">
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -5166,7 +5187,7 @@
       <c r="P133" s="20"/>
       <c r="Q133" s="21"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:17">
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
@@ -5184,7 +5205,7 @@
       <c r="P134" s="20"/>
       <c r="Q134" s="21"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:17">
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
@@ -5202,7 +5223,7 @@
       <c r="P135" s="20"/>
       <c r="Q135" s="21"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:17">
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -5220,7 +5241,7 @@
       <c r="P136" s="20"/>
       <c r="Q136" s="21"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:17">
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
@@ -5238,7 +5259,7 @@
       <c r="P137" s="20"/>
       <c r="Q137" s="21"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:17">
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -5256,7 +5277,7 @@
       <c r="P138" s="20"/>
       <c r="Q138" s="21"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:17">
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
@@ -5274,7 +5295,7 @@
       <c r="P139" s="20"/>
       <c r="Q139" s="21"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:17">
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
@@ -5292,7 +5313,7 @@
       <c r="P140" s="20"/>
       <c r="Q140" s="21"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:17">
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
@@ -5310,7 +5331,7 @@
       <c r="P141" s="20"/>
       <c r="Q141" s="21"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:17">
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
@@ -5328,7 +5349,7 @@
       <c r="P142" s="20"/>
       <c r="Q142" s="21"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:17">
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -5346,7 +5367,7 @@
       <c r="P143" s="20"/>
       <c r="Q143" s="21"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:17">
       <c r="B144" s="18"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
@@ -5364,7 +5385,7 @@
       <c r="P144" s="20"/>
       <c r="Q144" s="21"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:17">
       <c r="B145" s="18"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
@@ -5382,7 +5403,7 @@
       <c r="P145" s="20"/>
       <c r="Q145" s="21"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:17">
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
@@ -5400,7 +5421,7 @@
       <c r="P146" s="20"/>
       <c r="Q146" s="21"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:17">
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
@@ -5418,7 +5439,7 @@
       <c r="P147" s="20"/>
       <c r="Q147" s="21"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:17">
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
@@ -5436,7 +5457,7 @@
       <c r="P148" s="20"/>
       <c r="Q148" s="21"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:17">
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
@@ -5454,7 +5475,7 @@
       <c r="P149" s="20"/>
       <c r="Q149" s="21"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:17">
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
@@ -5472,7 +5493,7 @@
       <c r="P150" s="20"/>
       <c r="Q150" s="21"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:17">
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
@@ -5490,7 +5511,7 @@
       <c r="P151" s="20"/>
       <c r="Q151" s="21"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:17">
       <c r="B152" s="18"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
@@ -5508,7 +5529,7 @@
       <c r="P152" s="20"/>
       <c r="Q152" s="21"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:17">
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
@@ -5526,7 +5547,7 @@
       <c r="P153" s="20"/>
       <c r="Q153" s="21"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:17">
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
@@ -5544,7 +5565,7 @@
       <c r="P154" s="20"/>
       <c r="Q154" s="21"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:17">
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
@@ -5562,7 +5583,7 @@
       <c r="P155" s="20"/>
       <c r="Q155" s="21"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:17">
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
@@ -5580,7 +5601,7 @@
       <c r="P156" s="20"/>
       <c r="Q156" s="21"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:17">
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
@@ -5598,7 +5619,7 @@
       <c r="P157" s="20"/>
       <c r="Q157" s="21"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:17">
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
@@ -5616,7 +5637,7 @@
       <c r="P158" s="20"/>
       <c r="Q158" s="21"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:17">
       <c r="B159" s="18"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
@@ -5634,7 +5655,7 @@
       <c r="P159" s="20"/>
       <c r="Q159" s="21"/>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:17">
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
@@ -5652,7 +5673,7 @@
       <c r="P160" s="20"/>
       <c r="Q160" s="21"/>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:17">
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
@@ -5670,7 +5691,7 @@
       <c r="P161" s="20"/>
       <c r="Q161" s="21"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:17">
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
@@ -5688,7 +5709,7 @@
       <c r="P162" s="20"/>
       <c r="Q162" s="21"/>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:17">
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
@@ -5706,7 +5727,7 @@
       <c r="P163" s="20"/>
       <c r="Q163" s="21"/>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:17">
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
@@ -5724,7 +5745,7 @@
       <c r="P164" s="20"/>
       <c r="Q164" s="21"/>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:17">
       <c r="B165" s="18"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
@@ -5742,7 +5763,7 @@
       <c r="P165" s="20"/>
       <c r="Q165" s="21"/>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:17">
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
@@ -5760,7 +5781,7 @@
       <c r="P166" s="20"/>
       <c r="Q166" s="21"/>
     </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:17">
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
@@ -5778,7 +5799,7 @@
       <c r="P167" s="20"/>
       <c r="Q167" s="21"/>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:17">
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
@@ -5796,7 +5817,7 @@
       <c r="P168" s="20"/>
       <c r="Q168" s="21"/>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:17">
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
@@ -5814,7 +5835,7 @@
       <c r="P169" s="20"/>
       <c r="Q169" s="21"/>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:17">
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
@@ -5832,7 +5853,7 @@
       <c r="P170" s="20"/>
       <c r="Q170" s="21"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:17">
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
@@ -5850,7 +5871,7 @@
       <c r="P171" s="20"/>
       <c r="Q171" s="21"/>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:17">
       <c r="B172" s="18"/>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
@@ -5868,7 +5889,7 @@
       <c r="P172" s="20"/>
       <c r="Q172" s="21"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:17">
       <c r="B173" s="18"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
@@ -5886,7 +5907,7 @@
       <c r="P173" s="20"/>
       <c r="Q173" s="21"/>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:17">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
@@ -5904,7 +5925,7 @@
       <c r="P174" s="20"/>
       <c r="Q174" s="21"/>
     </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:17">
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
@@ -5922,7 +5943,7 @@
       <c r="P175" s="20"/>
       <c r="Q175" s="21"/>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:17">
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
@@ -5940,7 +5961,7 @@
       <c r="P176" s="20"/>
       <c r="Q176" s="21"/>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:17">
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
@@ -5958,7 +5979,7 @@
       <c r="P177" s="20"/>
       <c r="Q177" s="21"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:17">
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
@@ -5976,7 +5997,7 @@
       <c r="P178" s="20"/>
       <c r="Q178" s="21"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:17">
       <c r="B179" s="18"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
@@ -5994,7 +6015,7 @@
       <c r="P179" s="20"/>
       <c r="Q179" s="21"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:17">
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
@@ -6012,7 +6033,7 @@
       <c r="P180" s="20"/>
       <c r="Q180" s="21"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:17">
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
@@ -6030,7 +6051,7 @@
       <c r="P181" s="20"/>
       <c r="Q181" s="21"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:17">
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
@@ -6048,7 +6069,7 @@
       <c r="P182" s="20"/>
       <c r="Q182" s="21"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:17">
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
@@ -6066,7 +6087,7 @@
       <c r="P183" s="20"/>
       <c r="Q183" s="21"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:17">
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
@@ -6084,7 +6105,7 @@
       <c r="P184" s="20"/>
       <c r="Q184" s="21"/>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:17">
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
@@ -6102,7 +6123,7 @@
       <c r="P185" s="20"/>
       <c r="Q185" s="21"/>
     </row>
-    <row r="186" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:17" ht="15" thickBot="1">
       <c r="B186" s="30"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
@@ -6128,7 +6149,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6140,79 +6165,79 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>145</v>
       </c>
@@ -6220,5 +6245,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>